--- a/Share/Luban/Configs/Datas/__beans__.xlsx
+++ b/Share/Luban/Configs/Datas/__beans__.xlsx
@@ -1148,14 +1148,17 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="6" width="12.25" customWidth="1"/>
-    <col min="7" max="9" width="15" customWidth="1"/>
+    <col min="7" max="7" width="32.125" customWidth="1"/>
+    <col min="8" max="9" width="15" customWidth="1"/>
     <col min="10" max="11" width="13.5083333333333" customWidth="1"/>
     <col min="12" max="12" width="10.3833333333333" customWidth="1"/>
   </cols>
